--- a/uploads/members.xlsx
+++ b/uploads/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA7C1B5-D0BD-4827-804C-47E1A119B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C68A3-04B8-4524-B0C2-29F699D8D138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B8FC287E-7EC9-473E-BAAB-9AF6E5044353}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Cainong</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>beros.andreia@evsu.edu.ph</t>
+  </si>
+  <si>
+    <t>2023-55472</t>
+  </si>
+  <si>
+    <t>Asebto</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Arpon</t>
+  </si>
+  <si>
+    <t>marilyn@evsu.edu.ph</t>
+  </si>
+  <si>
+    <t>inactive</t>
   </si>
 </sst>
 </file>
@@ -462,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6E5616-B46C-4CF5-B15F-DD2DDE48C494}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,11 +588,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>9235678234</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{995C0208-DE1F-4CE1-A0CE-543C55418E1A}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{117A556B-41E2-4E90-A5A1-C607B6889FC5}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{66305D3C-DB25-464D-AFF6-86484A5653F2}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{160E2DCE-3F11-41D3-B34F-493DDE911269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/members.xlsx
+++ b/uploads/members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C68A3-04B8-4524-B0C2-29F699D8D138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2158382B-2496-4531-A5BB-A83386101CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B8FC287E-7EC9-473E-BAAB-9AF6E5044353}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="14400" windowHeight="8170" xr2:uid="{B8FC287E-7EC9-473E-BAAB-9AF6E5044353}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Cainong</t>
   </si>
@@ -118,13 +118,52 @@
   </si>
   <si>
     <t>inactive</t>
+  </si>
+  <si>
+    <t>fee type</t>
+  </si>
+  <si>
+    <t>fee amount</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>school year</t>
+  </si>
+  <si>
+    <t>INTEL FEE</t>
+  </si>
+  <si>
+    <t>1st semester</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
+  </si>
+  <si>
+    <t>2nd semester</t>
+  </si>
+  <si>
+    <t>2023-11112</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>adrian@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +175,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6E5616-B46C-4CF5-B15F-DD2DDE48C494}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +544,7 @@
     <col min="9" max="9" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -521,8 +566,20 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -541,8 +598,20 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -564,8 +633,20 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -587,8 +668,20 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -610,13 +703,62 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>9216579012</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{995C0208-DE1F-4CE1-A0CE-543C55418E1A}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{117A556B-41E2-4E90-A5A1-C607B6889FC5}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{66305D3C-DB25-464D-AFF6-86484A5653F2}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{160E2DCE-3F11-41D3-B34F-493DDE911269}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{84D7A540-A6AA-4631-8976-FCA6E8F579D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
